--- a/data/evaluation/evaluation_South_Autumn_Cabbage.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Cabbage.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4868.895833333333</v>
+        <v>4900.145833333333</v>
       </c>
       <c r="C3" t="n">
-        <v>37958025.67361111</v>
+        <v>38052400.67361111</v>
       </c>
       <c r="D3" t="n">
-        <v>6161.008494849777</v>
+        <v>6168.662794610443</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008662662047345115</v>
+        <v>-0.00161787896492549</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4634.647755143345</v>
+        <v>4673.198836147308</v>
       </c>
       <c r="C4" t="n">
-        <v>34713552.6835392</v>
+        <v>36578314.40334019</v>
       </c>
       <c r="D4" t="n">
-        <v>5891.820829212239</v>
+        <v>6048.000860064439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08626750494782554</v>
+        <v>0.03718312011274882</v>
       </c>
     </row>
     <row r="5">
